--- a/接口文档/版本api/版本api.xlsx
+++ b/接口文档/版本api/版本api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="57">
   <si>
     <t>功能说明：</t>
   </si>
@@ -196,6 +196,38 @@
   </si>
   <si>
     <t>运营端-删除版本</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型1-平台2-商铺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商铺ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nologin/queryCurrentInfoVersion</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1163,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1206,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1231,153 +1263,176 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="30" t="s">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
       <c r="B14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A7:A17"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2247,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/接口文档/版本api/版本api.xlsx
+++ b/接口文档/版本api/版本api.xlsx
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
